--- a/NBA_Database/Central.xlsx
+++ b/NBA_Database/Central.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\OneDrive\Documents\GitHub\NBA-Database\NBA_Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{5F2078FD-E006-46D6-8AFF-2B02F7B1E188}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{70CC66D7-3F32-4619-BD94-9FECE2E9AD32}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{5F2078FD-E006-46D6-8AFF-2B02F7B1E188}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{F0C67052-BA24-4F0F-8A84-F7C5A44A98C2}"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="1545" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{ED3D8B5F-6A2E-453F-9B6E-D021B7BFCAEF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{ED3D8B5F-6A2E-453F-9B6E-D021B7BFCAEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Bucks" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="57">
   <si>
     <t>Rk</t>
   </si>
@@ -91,36 +91,6 @@
     <t>Bruce Brown</t>
   </si>
   <si>
-    <t>Thon Maker</t>
-  </si>
-  <si>
-    <t>Jose Calderon</t>
-  </si>
-  <si>
-    <t>Zaza Pachulia</t>
-  </si>
-  <si>
-    <t>Glenn Robinson</t>
-  </si>
-  <si>
-    <t>Henry Ellenson</t>
-  </si>
-  <si>
-    <t>Jon Leuer</t>
-  </si>
-  <si>
-    <t>Khyri Thomas</t>
-  </si>
-  <si>
-    <t>Sviatoslav Mykhailiuk</t>
-  </si>
-  <si>
-    <t>Kalin Lucas</t>
-  </si>
-  <si>
-    <t>Zach Lofton</t>
-  </si>
-  <si>
     <t>Giannis Antetokounmpo</t>
   </si>
   <si>
@@ -151,45 +121,6 @@
     <t>Tony Snell</t>
   </si>
   <si>
-    <t>D.J. Wilson</t>
-  </si>
-  <si>
-    <t>Sterling Brown</t>
-  </si>
-  <si>
-    <t>Donte DiVincenzo</t>
-  </si>
-  <si>
-    <t>Tim Frazier</t>
-  </si>
-  <si>
-    <t>John Henson</t>
-  </si>
-  <si>
-    <t>Pau Gasol</t>
-  </si>
-  <si>
-    <t>Bonzie Colson</t>
-  </si>
-  <si>
-    <t>Matthew Dellavedova</t>
-  </si>
-  <si>
-    <t>Isaiah Canaan</t>
-  </si>
-  <si>
-    <t>Jaylen Morris</t>
-  </si>
-  <si>
-    <t>Jason Smith</t>
-  </si>
-  <si>
-    <t>Christian Wood</t>
-  </si>
-  <si>
-    <t>Trevon Duval</t>
-  </si>
-  <si>
     <t>Wesley Matthews</t>
   </si>
   <si>
@@ -220,27 +151,6 @@
     <t>Doug McDermott</t>
   </si>
   <si>
-    <t>Aaron Holiday</t>
-  </si>
-  <si>
-    <t>Edmond Sumner</t>
-  </si>
-  <si>
-    <t>Kyle O'Quinn</t>
-  </si>
-  <si>
-    <t>T.J. Leaf</t>
-  </si>
-  <si>
-    <t>Alize Johnson</t>
-  </si>
-  <si>
-    <t>Davon Reed</t>
-  </si>
-  <si>
-    <t>Ike Anigbogu</t>
-  </si>
-  <si>
     <t>Justin Holiday</t>
   </si>
   <si>
@@ -271,42 +181,6 @@
     <t>Ryan Arcidiacono</t>
   </si>
   <si>
-    <t>Bobby Portis</t>
-  </si>
-  <si>
-    <t>Wayne Selden</t>
-  </si>
-  <si>
-    <t>Robin Lopez</t>
-  </si>
-  <si>
-    <t>Chandler Hutchison</t>
-  </si>
-  <si>
-    <t>Shaquille Harrison</t>
-  </si>
-  <si>
-    <t>Timothe Luwawu-Cabarrot</t>
-  </si>
-  <si>
-    <t>Cameron Payne</t>
-  </si>
-  <si>
-    <t>Antonio Blakeney</t>
-  </si>
-  <si>
-    <t>Brandon Sampson</t>
-  </si>
-  <si>
-    <t>Cristiano Felicio</t>
-  </si>
-  <si>
-    <t>Rawle Alkins</t>
-  </si>
-  <si>
-    <t>Tyler Ulis</t>
-  </si>
-  <si>
     <t>Cedi Osman</t>
   </si>
   <si>
@@ -332,51 +206,6 @@
   </si>
   <si>
     <t>Brandon Knight</t>
-  </si>
-  <si>
-    <t>J.R. Smith</t>
-  </si>
-  <si>
-    <t>David Nwaba</t>
-  </si>
-  <si>
-    <t>Sam Dekker</t>
-  </si>
-  <si>
-    <t>Ante Zizic</t>
-  </si>
-  <si>
-    <t>Patrick McCaw</t>
-  </si>
-  <si>
-    <t>Jaron Blossomgame</t>
-  </si>
-  <si>
-    <t>Kyle Korver</t>
-  </si>
-  <si>
-    <t>Marquese Chriss</t>
-  </si>
-  <si>
-    <t>Nik Stauskas</t>
-  </si>
-  <si>
-    <t>Andrew Harrison</t>
-  </si>
-  <si>
-    <t>Jalen Jones</t>
-  </si>
-  <si>
-    <t>Deng Adel</t>
-  </si>
-  <si>
-    <t>Channing Frye</t>
-  </si>
-  <si>
-    <t>Kobi Simmons</t>
-  </si>
-  <si>
-    <t>John Holland</t>
   </si>
 </sst>
 </file>
@@ -750,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD4CD93A-D68C-42F4-A146-0C18EB9EDA29}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H25"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -787,7 +616,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2">
         <v>12.5</v>
@@ -813,7 +642,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2">
         <v>6.1</v>
@@ -839,7 +668,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2">
         <v>4.7</v>
@@ -865,7 +694,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2">
         <v>4.8</v>
@@ -891,7 +720,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2">
         <v>4.5</v>
@@ -917,7 +746,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2">
         <v>5.4</v>
@@ -943,7 +772,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2">
         <v>4.0999999999999996</v>
@@ -969,7 +798,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2">
         <v>2.5</v>
@@ -995,7 +824,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2">
         <v>4.5</v>
@@ -1021,7 +850,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C11" s="2">
         <v>2.1</v>
@@ -1042,369 +871,145 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="2">
-        <v>4.2</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="H12" s="2">
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="2">
-        <v>3.1</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="H13" s="2">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="2">
-        <v>2.4</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="H14" s="2">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="D15" s="2">
-        <v>3.1</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="2">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="D16" s="2">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="H16" s="2">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="2">
-        <v>2.7</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="H17" s="2">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="2">
-        <v>3.3</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="H18" s="2">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="2">
-        <v>3.2</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="H19" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="D20" s="2">
-        <v>2.4</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="H20" s="2">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="2">
-        <v>1</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="G21" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="H21" s="2">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="D22" s="2">
-        <v>1</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F22" s="2">
-        <v>0</v>
-      </c>
-      <c r="G22" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="H22" s="2">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="F23" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="G23" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="H23" s="2">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="D24" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="E24" s="2">
-        <v>0</v>
-      </c>
-      <c r="F24" s="2">
-        <v>0</v>
-      </c>
-      <c r="G24" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="H24" s="2">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="D25" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="E25" s="2">
-        <v>0</v>
-      </c>
-      <c r="F25" s="2">
-        <v>0</v>
-      </c>
-      <c r="G25" s="2">
-        <v>0</v>
-      </c>
-      <c r="H25" s="2">
-        <v>1.7</v>
-      </c>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1415,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F472A66-F2FE-4B73-9AE1-DD0D2277BEFA}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection sqref="A1:H23"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1452,7 +1057,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="C2" s="4">
         <v>4.4000000000000004</v>
@@ -1478,7 +1083,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="C3" s="4">
         <v>4.7</v>
@@ -1504,7 +1109,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C4" s="4">
         <v>5.5</v>
@@ -1530,7 +1135,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="C5" s="4">
         <v>9</v>
@@ -1556,7 +1161,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C6" s="4">
         <v>3</v>
@@ -1582,7 +1187,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="C7" s="4">
         <v>4.0999999999999996</v>
@@ -1608,7 +1213,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="C8" s="4">
         <v>7</v>
@@ -1634,7 +1239,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="C9" s="4">
         <v>6.2</v>
@@ -1660,7 +1265,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="C10" s="4">
         <v>7</v>
@@ -1686,7 +1291,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="C11" s="4">
         <v>2.6</v>
@@ -1707,317 +1312,125 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="4">
-        <v>7.3</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1.3</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="G12" s="4">
-        <v>1.3</v>
-      </c>
-      <c r="H12" s="4">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="4">
-        <v>2.9</v>
-      </c>
-      <c r="D13" s="4">
-        <v>1.6</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="G13" s="4">
-        <v>1.3</v>
-      </c>
-      <c r="H13" s="4">
-        <v>8.1999999999999993</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="D14" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="F14" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G14" s="4">
-        <v>1.3</v>
-      </c>
-      <c r="H14" s="4">
-        <v>9.4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" s="4">
-        <v>4.2</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="G15" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="H15" s="4">
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" s="4">
-        <v>3</v>
-      </c>
-      <c r="D16" s="4">
-        <v>1.9</v>
-      </c>
-      <c r="E16" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="F16" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="G16" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="H16" s="4">
-        <v>6.2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" s="4">
-        <v>2.4</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="F17" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="G17" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="H17" s="4">
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" s="4">
-        <v>1.7</v>
-      </c>
-      <c r="D18" s="4">
-        <v>2.7</v>
-      </c>
-      <c r="E18" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="F18" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="G18" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H18" s="4">
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>18</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C19" s="4">
-        <v>1.9</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="E19" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="F19" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="G19" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="H19" s="4">
-        <v>7.3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="4">
-        <v>1</v>
-      </c>
-      <c r="D20" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="E20" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="F20" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="G20" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="H20" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="F21" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="G21" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="H21" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>21</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" s="4">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="D22" s="4">
-        <v>1</v>
-      </c>
-      <c r="E22" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="F22" s="4">
-        <v>0</v>
-      </c>
-      <c r="G22" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="H22" s="4">
-        <v>2</v>
-      </c>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>22</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23" s="4">
-        <v>0</v>
-      </c>
-      <c r="D23" s="4">
-        <v>0</v>
-      </c>
-      <c r="E23" s="4">
-        <v>0</v>
-      </c>
-      <c r="F23" s="4">
-        <v>0</v>
-      </c>
-      <c r="G23" s="4">
-        <v>0</v>
-      </c>
-      <c r="H23" s="4">
-        <v>0</v>
-      </c>
+      <c r="A23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2029,7 +1442,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H28"/>
+      <selection activeCell="A12" sqref="A12:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2065,7 +1478,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="C2" s="4">
         <v>4.7</v>
@@ -2091,7 +1504,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="C3" s="4">
         <v>3</v>
@@ -2117,7 +1530,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="C4" s="4">
         <v>5.5</v>
@@ -2143,7 +1556,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="C5" s="4">
         <v>10.3</v>
@@ -2169,7 +1582,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="C6" s="4">
         <v>11.2</v>
@@ -2195,7 +1608,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="C7" s="4">
         <v>2.5</v>
@@ -2221,7 +1634,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="C8" s="4">
         <v>3.4</v>
@@ -2247,7 +1660,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C9" s="4">
         <v>2.1</v>
@@ -2273,7 +1686,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="C10" s="4">
         <v>7.9</v>
@@ -2299,7 +1712,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="C11" s="4">
         <v>1.7</v>
@@ -2320,447 +1733,175 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" s="4">
-        <v>1.6</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1.9</v>
-      </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="G12" s="4">
-        <v>1</v>
-      </c>
-      <c r="H12" s="4">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="4">
-        <v>1.9</v>
-      </c>
-      <c r="D13" s="4">
-        <v>4.2</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="G13" s="4">
-        <v>1.6</v>
-      </c>
-      <c r="H13" s="4">
-        <v>7.3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" s="4">
-        <v>2.1</v>
-      </c>
-      <c r="D14" s="4">
-        <v>2.6</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="F14" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="G14" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="H14" s="4">
-        <v>8.1999999999999993</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" s="4">
-        <v>3</v>
-      </c>
-      <c r="D15" s="4">
-        <v>1</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="G15" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="H15" s="4">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C16" s="4">
-        <v>3.7</v>
-      </c>
-      <c r="D16" s="4">
-        <v>1</v>
-      </c>
-      <c r="E16" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="F16" s="4">
-        <v>0</v>
-      </c>
-      <c r="G16" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="H16" s="4">
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C17" s="4">
-        <v>5.3</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="F17" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="G17" s="4">
-        <v>1</v>
-      </c>
-      <c r="H17" s="4">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C18" s="4">
-        <v>1</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="E18" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="F18" s="4">
-        <v>0</v>
-      </c>
-      <c r="G18" s="4">
-        <v>1</v>
-      </c>
-      <c r="H18" s="4">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>18</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C19" s="4">
-        <v>3.6</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="E19" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="F19" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="G19" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="H19" s="4">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C20" s="4">
-        <v>1.8</v>
-      </c>
-      <c r="D20" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E20" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="F20" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="G20" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H20" s="4">
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C21" s="4">
-        <v>4.3</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="F21" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="G21" s="4">
-        <v>1</v>
-      </c>
-      <c r="H21" s="4">
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>21</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C22" s="4">
-        <v>2</v>
-      </c>
-      <c r="D22" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="E22" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="F22" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="G22" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="H22" s="4">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>22</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C23" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="D23" s="4">
-        <v>1.7</v>
-      </c>
-      <c r="E23" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="F23" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="G23" s="4">
-        <v>1</v>
-      </c>
-      <c r="H23" s="4">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>23</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C24" s="4">
-        <v>2.1</v>
-      </c>
-      <c r="D24" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="E24" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="F24" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="G24" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="H24" s="4">
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>24</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C25" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D25" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="E25" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="F25" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="G25" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="H25" s="4">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>25</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C26" s="4">
-        <v>1.4</v>
-      </c>
-      <c r="D26" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="E26" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="F26" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="G26" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="H26" s="4">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>26</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C27" s="4">
-        <v>0</v>
-      </c>
-      <c r="D27" s="4">
-        <v>0</v>
-      </c>
-      <c r="E27" s="4">
-        <v>0</v>
-      </c>
-      <c r="F27" s="4">
-        <v>0</v>
-      </c>
-      <c r="G27" s="4">
-        <v>0</v>
-      </c>
-      <c r="H27" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>27</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C28" s="4">
-        <v>0</v>
-      </c>
-      <c r="D28" s="4">
-        <v>0</v>
-      </c>
-      <c r="E28" s="4">
-        <v>0</v>
-      </c>
-      <c r="F28" s="4">
-        <v>0</v>
-      </c>
-      <c r="G28" s="4">
-        <v>0</v>
-      </c>
-      <c r="H28" s="4">
-        <v>0</v>
-      </c>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2771,8 +1912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2906792-9839-4574-9123-BA831F0D999F}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection sqref="A1:H18"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2808,7 +1949,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2">
         <v>3</v>
@@ -2834,7 +1975,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="C3" s="2">
         <v>4.0999999999999996</v>
@@ -2860,7 +2001,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="C4" s="2">
         <v>5.6</v>
@@ -2886,7 +2027,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="C5" s="2">
         <v>6.5</v>
@@ -2912,7 +2053,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="C6" s="2">
         <v>7.3</v>
@@ -2938,7 +2079,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="C7" s="2">
         <v>3.1</v>
@@ -2964,7 +2105,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="C8" s="2">
         <v>3.4</v>
@@ -2990,7 +2131,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="C9" s="2">
         <v>9.3000000000000007</v>
@@ -3016,7 +2157,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="C10" s="2">
         <v>2.8</v>
@@ -3042,7 +2183,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C11" s="2">
         <v>1.4</v>
@@ -3063,187 +2204,75 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="H12" s="2">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="H13" s="2">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="2">
-        <v>2.7</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="H14" s="2">
-        <v>3.4</v>
-      </c>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="2">
-        <v>2</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="H15" s="2">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="H18" s="2">
-        <v>0</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3254,8 +2283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C2BA512-F8E7-4E5D-9F3F-9345F194652A}">
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3689,31 +2718,15 @@
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
     </row>
-    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="2">
-        <v>3.8</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="H12" s="2">
-        <v>6</v>
-      </c>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -3728,31 +2741,15 @@
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
     </row>
-    <row r="13" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="D13" s="2">
-        <v>2.4</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="H13" s="2">
-        <v>2.4</v>
-      </c>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -3767,31 +2764,15 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="2">
-        <v>3.9</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="H14" s="2">
-        <v>3.9</v>
-      </c>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -3806,31 +2787,15 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="H15" s="2">
-        <v>4.3</v>
-      </c>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -3845,31 +2810,15 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
     </row>
-    <row r="16" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0</v>
-      </c>
-      <c r="H16" s="2">
-        <v>6</v>
-      </c>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -3884,31 +2833,15 @@
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
     </row>
-    <row r="17" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="2">
-        <v>2.4</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="H17" s="2">
-        <v>3.9</v>
-      </c>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -3923,31 +2856,15 @@
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
     </row>
-    <row r="18" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="H18" s="2">
-        <v>2.5</v>
-      </c>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -3962,31 +2879,15 @@
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
     </row>
-    <row r="19" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="D19" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="H19" s="2">
-        <v>2</v>
-      </c>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -4001,31 +2902,15 @@
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
     </row>
-    <row r="20" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="2">
-        <v>3</v>
-      </c>
-      <c r="D20" s="2">
-        <v>1</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0</v>
-      </c>
-      <c r="H20" s="2">
-        <v>2</v>
-      </c>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -4040,31 +2925,15 @@
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
     </row>
-    <row r="21" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0</v>
-      </c>
-      <c r="E21" s="2">
-        <v>1</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0</v>
-      </c>
-      <c r="G21" s="2">
-        <v>1</v>
-      </c>
-      <c r="H21" s="2">
-        <v>0</v>
-      </c>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
       <c r="I21" s="1"/>
     </row>
   </sheetData>
